--- a/assets/disciplinas/LOQ4060.xlsx
+++ b/assets/disciplinas/LOQ4060.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-6,EQD-6,EQN-8</t>
+    <t>EB-6,EQD-5,EQN-7</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOQ4060.xlsx
+++ b/assets/disciplinas/LOQ4060.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2018</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -88,25 +88,25 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1)Determinação do número de Reynolds;2)Medidas de vazão em líquidos;3)Determinação de potência de bomba; 4)Esvaziamento de tanques cilíndricos;5)Determinação do fator de atrito em tubulações;6)Ensaios reológicos.</t>
+    <t>1) Determinação do número de Reynolds; 2) Medidas de vazão em líquidos; 3) Esvaziamento de tanques cilíndricos; 4) Determinação do fator de atrito em tubulações; 5) Ensaios reológicos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
   </si>
   <si>
-    <t>1)Determination of Reynolds number 2) Liquids flow measurements 3) Determination of the fluids velocity profile in pipe 4) Liquid flow from a cylindrical tank 5) Determination of friction factor in pipes 6) Rheological tests.</t>
+    <t>1) Determination of Reynolds number 2) Liquids flow measurements 3) Determination of the fluids velocity profile in pipe 4) Liquid flow from a cylindrical tank 5) Determination of friction factor in pipes 6) Rheological tests.</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>1)Determinação do número de Reynolds, utilizando o aparato experimental;2)Medidas de Vazão em líquidos: determinação da vazão com utilização de placa de orifício, Venturi e rotâmetro;3)Determinação de potência de bomba centrífuga a partir da vazão volumétrica e das perdas de carga distribuída e localizada nas linhas de sucção e recalque de um sistema hidráulico;4)Esvaziamento de tanques cilíndricos: aplicação das equações de conservação de massa e energia na determinação do tempo de esvaziamento de tanques e comparação com dados experimentais;5)Determinação do fator de atrito em tubulações: avaliação do fator de atrito em função do número de Reynolds em tubulações;6)Ensaios reológicos: com a utilização de vários tipos de viscosímetros para determinar as viscosidades dinâmica e cinemática.</t>
+    <t>1) Determinação do número de Reynolds, utilizando o aparato experimental; 2) Medidas de Vazão em líquidos: determinação da vazão com utilização de placa de orifício, Venturi e rotâmetro; 3) Esvaziamento de tanques cilíndricos: aplicação das equações de conservação de massa e energia na determinação do tempo de esvaziamento de tanques e comparação com dados experimentais; 4) Determinação do fator de atrito em tubulações: avaliação do fator de atrito em função do número de Reynolds em tubulações; 5) Ensaios reológicos: com a utilização de vários tipos de viscosímetros para determinar as viscosidades dinâmica e cinemática.</t>
   </si>
   <si>
     <t>Syllabus:</t>
   </si>
   <si>
-    <t>1) Determination of the Reynolds number using the experimental apparatus. 2) Liquids flow measurements: Determining the flow by using a rotameter, orifice plate and Venturi. 3) Determination of the fluids velocity profile in pipe: determining the velocity profile in pipe using a Pitot tube. 4) Liquid flow from a cylindrical tank: verification of a mathematical model based on the conservation equations of mass and energy to determine the time of emptying reservoir and compared the results with experimental data. 5) Determination of friction factor in pipes: evaluation of the friction factor as a function of Reynolds number in pipes. 6) Rheological tests: with the use of various types of viscometers to determine the dynamic and kinematic viscosities.</t>
+    <t>1) Determination of the Reynolds number using the experimental apparatus. 2) Liquids flow measurements: Determining the flow by using a rotameter, orifice plate and Venturi. 3) Liquid flow from a cylindrical tank: verification of a mathematical model based on the conservation equations of mass and energy to determine the time of emptying reservoir and compared the results with experimental data. 4) Determination of friction factor in pipes: evaluation of the friction factor as a function of Reynolds number in pipes. 5) Rheological tests: with the use of various types of viscometers to determine the dynamic and kinematic viscosities.</t>
   </si>
   <si>
     <t>Avaliação:</t>

--- a/assets/disciplinas/LOQ4060.xlsx
+++ b/assets/disciplinas/LOQ4060.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>A disciplina visa consolidar e aplicar os conhecimentos adquiridos na disciplina teórica de Fenômenos de Transporte I, bem como desenvolver a capacidade de trabalho em grupo, colocando o aluno em contato com equipamentos de engenharia, cujas atividades poderão incluir a montagem e/ou utilização de equipamentos existentes. Nos experimentos, os alunos farão as verificações necessárias para o desenvolvimento dos cálculos e interpretação de resultados, nos domínios da mecânica dos fluidos.</t>
+    <t>4808662 - Lucrécio Fábio dos Santos</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4808662 - Lucrécio Fábio dos Santos</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1) Determinação do número de Reynolds; 2) Medidas de vazão em líquidos; 3) Esvaziamento de tanques cilíndricos; 4) Determinação do fator de atrito em tubulações; 5) Ensaios reológicos.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Determinação do número de Reynolds, utilizando o aparato experimental; 2) Medidas de Vazão em líquidos: determinação da vazão com utilização de placa de orifício, Venturi e rotâmetro; 3) Esvaziamento de tanques cilíndricos: aplicação das equações de conservação de massa e energia na determinação do tempo de esvaziamento de tanques e comparação com dados experimentais; 4) Determinação do fator de atrito em tubulações: avaliação do fator de atrito em função do número de Reynolds em tubulações; 5) Ensaios reológicos: com a utilização de vários tipos de viscosímetros para determinar as viscosidades dinâmica e cinemática.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aplicação de prova(s) e relatório(s).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental). A média (M1) será calculada de acordo com a equação abaixo:M1 = 0,6*NR + 0,4* NP</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)FOX, R.W.; PRITCHARD, P.J.; McDONALD, A.T. Introdução à Mecânica dos Fluidos. Ed. Gen LTC, 7 ed, Rio de Janeiro/RJ, 2010.2)ÇENGEL, Y.A.; COMBALA, J.M. Mecânica dos Fluidos: fundamentos e aplicações. McGraw-Hill Education (AMGH Editora Ltda),  Porto Alegre/ RS, 2007.3)COUPER, JR.; PENNEY, W.R.; FAIR, J.R.; WALAS, S.M. Chemical Process Equipment: Selection and Design. Amsterdam: Elsevier, 2005.4)TROPEA, C.; YARIN, A.L.; FOSS, J.F. Handbook of Experimental Fluid Mechanics. Ed Springer. Springer-Verlag Berlin Heidelberg. 2007</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -668,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4060.xlsx
+++ b/assets/disciplinas/LOQ4060.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>A disciplina visa consolidar e aplicar os conhecimentos adquiridos na disciplina teórica de Fenômenos de Transporte I, bem como desenvolver a capacidade de trabalho em grupo, colocando o aluno em contato com equipamentos de engenharia, cujas atividades poderão incluir a montagem e/ou utilização de equipamentos existentes. Nos experimentos, os alunos farão as verificações necessárias para o desenvolvimento dos cálculos e interpretação de resultados, nos domínios da mecânica dos fluidos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The course aims to consolidate and apply the knowledge acquired in the theoretical discipline of Transport Phenomena I, as well as to develop the ability to work in groups, putting the student in contact with engineering equipment, whose activities may include the assembly and / or use of equipment existing. In the experiments, the students will make the necessary checks for the development of calculations and interpretation of results, in the domains of fluid mechanics.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4808662 - Lucrécio Fábio dos Santos</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The course aims to consolidate and apply the knowledge acquired in the theoretical discipline of Transport Phenomena I, as well as to develop the ability to work in groups, putting the student in contact with engineering equipment, whose activities may include the assembly and / or use of equipment existing. In the experiments, the students will make the necessary checks for the development of calculations and interpretation of results, in the domains of fluid mechanics.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1) Determinação do número de Reynolds; 2) Medidas de vazão em líquidos; 3) Esvaziamento de tanques cilíndricos; 4) Determinação do fator de atrito em tubulações; 5) Ensaios reológicos.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Determinação do número de Reynolds, utilizando o aparato experimental; 2) Medidas de Vazão em líquidos: determinação da vazão com utilização de placa de orifício, Venturi e rotâmetro; 3) Esvaziamento de tanques cilíndricos: aplicação das equações de conservação de massa e energia na determinação do tempo de esvaziamento de tanques e comparação com dados experimentais; 4) Determinação do fator de atrito em tubulações: avaliação do fator de atrito em função do número de Reynolds em tubulações; 5) Ensaios reológicos: com a utilização de vários tipos de viscosímetros para determinar as viscosidades dinâmica e cinemática.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aplicação de prova(s) e relatório(s).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aplicação de prova(s) e relatório(s).</t>
+    <t>Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental). A média (M1) será calculada de acordo com a equação abaixo:M1 = 0,6*NR + 0,4* NP</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental). A média (M1) será calculada de acordo com a equação abaixo:M1 = 0,6*NR + 0,4* NP</t>
+    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
+    <t>1)FOX, R.W.; PRITCHARD, P.J.; McDONALD, A.T. Introdução à Mecânica dos Fluidos. Ed. Gen LTC, 7 ed, Rio de Janeiro/RJ, 2010.2)ÇENGEL, Y.A.; COMBALA, J.M. Mecânica dos Fluidos: fundamentos e aplicações. McGraw-Hill Education (AMGH Editora Ltda),  Porto Alegre/ RS, 2007.3)COUPER, JR.; PENNEY, W.R.; FAIR, J.R.; WALAS, S.M. Chemical Process Equipment: Selection and Design. Amsterdam: Elsevier, 2005.4)TROPEA, C.; YARIN, A.L.; FOSS, J.F. Handbook of Experimental Fluid Mechanics. Ed Springer. Springer-Verlag Berlin Heidelberg. 2007</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +627,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +668,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
